--- a/algorithm/reproduccion.xlsx
+++ b/algorithm/reproduccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Parámetro</t>
   </si>
@@ -110,34 +110,43 @@
     <t>prob_GRASP3</t>
   </si>
   <si>
-    <t>Ejecuciones</t>
+    <t>Ejec1</t>
+  </si>
+  <si>
+    <t>Ejec2</t>
+  </si>
+  <si>
+    <t>Ejec3</t>
+  </si>
+  <si>
+    <t>Ejec4</t>
+  </si>
+  <si>
+    <t>Ejec5</t>
+  </si>
+  <si>
+    <t>Ejec6</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Mejor</t>
+  </si>
+  <si>
+    <t>Promedio_Gap</t>
+  </si>
+  <si>
+    <t>Mejor_Gap</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
   <si>
     <t>Instancia 1</t>
   </si>
   <si>
     <t>Instancia 2</t>
-  </si>
-  <si>
-    <t>Instancia 3</t>
-  </si>
-  <si>
-    <t>Ejec0</t>
-  </si>
-  <si>
-    <t>Ejec1</t>
-  </si>
-  <si>
-    <t>Ejec2</t>
-  </si>
-  <si>
-    <t>Ejec3</t>
-  </si>
-  <si>
-    <t>Ejec4</t>
-  </si>
-  <si>
-    <t>Ejec5</t>
   </si>
 </sst>
 </file>
@@ -1221,111 +1230,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
-        <v>0.193</v>
-      </c>
-      <c r="C2">
-        <v>0.139</v>
-      </c>
-      <c r="D2">
-        <v>0.136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3">
-        <v>0.202</v>
-      </c>
-      <c r="C3">
-        <v>0.139</v>
-      </c>
-      <c r="D3">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>0.172</v>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>0.14</v>
+        <v>82827</v>
       </c>
       <c r="D4">
-        <v>0.117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>0.193</v>
+        <v>82827</v>
+      </c>
+      <c r="E4">
+        <v>0.1618</v>
+      </c>
+      <c r="F4">
+        <v>0.1618</v>
+      </c>
+      <c r="G4">
+        <v>64.1476</v>
+      </c>
+      <c r="H4">
+        <v>82828</v>
+      </c>
+      <c r="I4">
+        <v>82828</v>
+      </c>
+      <c r="J4">
+        <v>0.1618</v>
+      </c>
+      <c r="K4">
+        <v>0.1618</v>
+      </c>
+      <c r="L4">
+        <v>74.62009999999999</v>
+      </c>
+      <c r="M4">
+        <v>82829</v>
+      </c>
+      <c r="N4">
+        <v>82829</v>
+      </c>
+      <c r="O4">
+        <v>0.1618</v>
+      </c>
+      <c r="P4">
+        <v>0.1618</v>
+      </c>
+      <c r="Q4">
+        <v>66.506</v>
+      </c>
+      <c r="R4">
+        <v>82827</v>
+      </c>
+      <c r="S4">
+        <v>82827</v>
+      </c>
+      <c r="T4">
+        <v>0.1618</v>
+      </c>
+      <c r="U4">
+        <v>0.1618</v>
+      </c>
+      <c r="V4">
+        <v>66.7306</v>
+      </c>
+      <c r="W4">
+        <v>81831</v>
+      </c>
+      <c r="X4">
+        <v>81831</v>
+      </c>
+      <c r="Y4">
+        <v>0.1719</v>
+      </c>
+      <c r="Z4">
+        <v>0.1719</v>
+      </c>
+      <c r="AA4">
+        <v>68.32559999999999</v>
+      </c>
+      <c r="AB4">
+        <v>82828</v>
+      </c>
+      <c r="AC4">
+        <v>82828</v>
+      </c>
+      <c r="AD4">
+        <v>0.1618</v>
+      </c>
+      <c r="AE4">
+        <v>0.1618</v>
+      </c>
+      <c r="AF4">
+        <v>72.91370000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.14</v>
+        <v>90778</v>
       </c>
       <c r="D5">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>0.193</v>
-      </c>
-      <c r="C6">
-        <v>0.14</v>
-      </c>
-      <c r="D6">
-        <v>0.136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0.194</v>
-      </c>
-      <c r="C7">
-        <v>0.109</v>
-      </c>
-      <c r="D7">
-        <v>0.126</v>
+        <v>90778</v>
+      </c>
+      <c r="E5">
+        <v>0.0989</v>
+      </c>
+      <c r="F5">
+        <v>0.0989</v>
+      </c>
+      <c r="G5">
+        <v>79.34780000000001</v>
+      </c>
+      <c r="H5">
+        <v>89779</v>
+      </c>
+      <c r="I5">
+        <v>89779</v>
+      </c>
+      <c r="J5">
+        <v>0.1088</v>
+      </c>
+      <c r="K5">
+        <v>0.1088</v>
+      </c>
+      <c r="L5">
+        <v>89.9943</v>
+      </c>
+      <c r="M5">
+        <v>90780</v>
+      </c>
+      <c r="N5">
+        <v>90780</v>
+      </c>
+      <c r="O5">
+        <v>0.0989</v>
+      </c>
+      <c r="P5">
+        <v>0.0989</v>
+      </c>
+      <c r="Q5">
+        <v>83.123</v>
+      </c>
+      <c r="R5">
+        <v>90779</v>
+      </c>
+      <c r="S5">
+        <v>90779</v>
+      </c>
+      <c r="T5">
+        <v>0.0989</v>
+      </c>
+      <c r="U5">
+        <v>0.0989</v>
+      </c>
+      <c r="V5">
+        <v>81.00530000000001</v>
+      </c>
+      <c r="W5">
+        <v>89780</v>
+      </c>
+      <c r="X5">
+        <v>89780</v>
+      </c>
+      <c r="Y5">
+        <v>0.1088</v>
+      </c>
+      <c r="Z5">
+        <v>0.1088</v>
+      </c>
+      <c r="AA5">
+        <v>82.7604</v>
+      </c>
+      <c r="AB5">
+        <v>89779</v>
+      </c>
+      <c r="AC5">
+        <v>89779</v>
+      </c>
+      <c r="AD5">
+        <v>0.1088</v>
+      </c>
+      <c r="AE5">
+        <v>0.1088</v>
+      </c>
+      <c r="AF5">
+        <v>89.733</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>